--- a/tests/testthat/_snaps/knitxl/bullet_list.xlsx
+++ b/tests/testthat/_snaps/knitxl/bullet_list.xlsx
@@ -29,8 +29,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Bold item</t>
     </r>
@@ -51,8 +49,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">bold</t>
     </r>
@@ -65,8 +61,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">italic</t>
     </r>

--- a/tests/testthat/_snaps/knitxl/bullet_list.xlsx
+++ b/tests/testthat/_snaps/knitxl/bullet_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Bullet list 1:</t>
   </si>
@@ -32,9 +32,6 @@
       </rPr>
       <t xml:space="preserve">Bold item</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Bullet list 2</t>
@@ -416,14 +413,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -433,7 +425,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/_snaps/knitxl/bullet_list.xlsx
+++ b/tests/testthat/_snaps/knitxl/bullet_list.xlsx
@@ -12,12 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Bullet list 1:</t>
   </si>
   <si>
-    <t xml:space="preserve">• Simple item</t>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <t xml:space="preserve">Simple item</t>
+    </r>
   </si>
   <si>
     <r>
@@ -35,6 +40,14 @@
   </si>
   <si>
     <t xml:space="preserve">Bullet list 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <t xml:space="preserve">Simple item</t>
+    </r>
   </si>
   <si>
     <r>
@@ -420,12 +433,12 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
